--- a/form_reporting_templates/interim/Form-1RC_interim.xlsx
+++ b/form_reporting_templates/interim/Form-1RC_interim.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\dev\git\BitBucket workspaces\IOTC-ws\Data dissemination\iotc-reference-forms\form_reporting_templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\dev\git\BitBucket workspaces\IOTC-ws\Data dissemination\iotc-reference-forms\form_reporting_templates\interim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A6A2F2D-E771-47E4-A079-F68DED4C1E02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70F945C6-4A98-45A6-AFAD-A62ADE045AB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="5O4euoXp3wZfikUhVbwGMfw3acpHwF0QGHqLGhqkSE4QfnoccY7VPEsDDzzEBP5NB49UT+XbcZf1lZQTbDpLFA==" workbookSaltValue="DtEOIJKZ9UKP8oWrD+QpRw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -81,9 +81,6 @@
     <t>Form</t>
   </si>
   <si>
-    <t>1-RC</t>
-  </si>
-  <si>
     <t>Source</t>
   </si>
   <si>
@@ -99,12 +96,6 @@
     <t>Source coverage</t>
   </si>
   <si>
-    <t>IOTC form 1-RC | data</t>
-  </si>
-  <si>
-    <t>IOTC form 1-RC | metadata</t>
-  </si>
-  <si>
     <t>Retain reason</t>
   </si>
   <si>
@@ -133,6 +124,15 @@
   </si>
   <si>
     <t>email</t>
+  </si>
+  <si>
+    <t>IOTC Form 1RC | data</t>
+  </si>
+  <si>
+    <t>IOTC Form 1RC | metadata</t>
+  </si>
+  <si>
+    <t>1RC</t>
   </si>
 </sst>
 </file>
@@ -1155,7 +1155,7 @@
     <row r="1" spans="2:8" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="60" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C2" s="61"/>
       <c r="D2" s="61"/>
@@ -1179,14 +1179,14 @@
         <v>13</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G4" s="20" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H4" s="4"/>
     </row>
@@ -1227,7 +1227,7 @@
       <c r="D8" s="59"/>
       <c r="E8" s="6"/>
       <c r="F8" s="59" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G8" s="59"/>
       <c r="H8" s="7"/>
@@ -1248,12 +1248,12 @@
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="5"/>
       <c r="C10" s="9" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D10" s="23"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G10" s="23"/>
       <c r="H10" s="7"/>
@@ -1270,7 +1270,7 @@
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="5"/>
       <c r="C12" s="9" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D12" s="33"/>
       <c r="E12" s="6"/>
@@ -1341,7 +1341,7 @@
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="5"/>
       <c r="C19" s="34" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D19" s="32"/>
       <c r="E19" s="6"/>
@@ -1421,7 +1421,7 @@
       <c r="D27" s="22"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="0h7U1wOmpu2+K04lLxiwBLngxeitul6QXBmvAOai5rnrfvE6hCOecwSOOe2uxiOFYqIPK0tn2HbIVnW+tgq4CQ==" saltValue="8XMNUSoZJLHH3PzbnYBWjg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="DFbpv5sUaHDa441cQ9iuNeJNhjXdK7ytoFX6aT1/ZUIabktV42R7X5zjTAJWfaLIJ0SY8VkoVkazInog9ahrfQ==" saltValue="Pe0r5gLelvoCO3mgRWZgUw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="4">
     <mergeCell ref="C25:G25"/>
     <mergeCell ref="C8:D8"/>
@@ -1474,7 +1474,7 @@
     <row r="1" spans="1:111" customFormat="1" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:111" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="60" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C2" s="61"/>
       <c r="D2" s="61"/>
@@ -1702,23 +1702,23 @@
     <row r="4" spans="1:111" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="31"/>
       <c r="B4" s="66" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C4" s="67"/>
       <c r="D4" s="67"/>
       <c r="E4" s="67"/>
       <c r="F4" s="68"/>
       <c r="G4" s="66" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H4" s="67"/>
       <c r="I4" s="68"/>
       <c r="J4" s="66" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K4" s="68"/>
       <c r="L4" s="69" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M4" s="70"/>
       <c r="N4" s="70"/>
@@ -1828,28 +1828,28 @@
         <v>6</v>
       </c>
       <c r="D5" s="37" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E5" s="37" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F5" s="38" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G5" s="40" t="s">
         <v>12</v>
       </c>
       <c r="H5" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="38" t="s">
         <v>15</v>
-      </c>
-      <c r="I5" s="38" t="s">
-        <v>16</v>
       </c>
       <c r="J5" s="40" t="s">
         <v>12</v>
       </c>
       <c r="K5" s="41" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="L5" s="42"/>
       <c r="M5" s="43"/>
@@ -2653,7 +2653,7 @@
       <c r="K55" s="55"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="FBUjFu+T4mw0B+piIii5IpWbs28uoLoqTU0wfrTJieqCw4eCLdGIMTOwzBzZyJj8yhsoK0RFexSlGyWF9ml/5A==" saltValue="PU9lHycsAF59HyeUHeTsvQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="lGdYjq29e1ChA8obbVy4U6Gh9FLIewZ8DzpF/ld1Lxf9++rfpBlYM0s0CWvpWJF3WYDau+qxJ26/5uQ5lT+wWw==" saltValue="nkszOoSztdt8BqwCOgFtCg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="5">
     <mergeCell ref="G4:I4"/>
     <mergeCell ref="J4:K4"/>

--- a/form_reporting_templates/interim/Form-1RC_interim.xlsx
+++ b/form_reporting_templates/interim/Form-1RC_interim.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\dev\git\BitBucket workspaces\IOTC-ws\Data dissemination\iotc-reference-forms\form_reporting_templates\interim\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\echassot\Desktop\iotc-reference-forms\form_reporting_templates\interim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70F945C6-4A98-45A6-AFAD-A62ADE045AB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09E76950-BE5E-45E1-910E-E597AE7748FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="5O4euoXp3wZfikUhVbwGMfw3acpHwF0QGHqLGhqkSE4QfnoccY7VPEsDDzzEBP5NB49UT+XbcZf1lZQTbDpLFA==" workbookSaltValue="DtEOIJKZ9UKP8oWrD+QpRw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -51,9 +51,6 @@
     <t>General information</t>
   </si>
   <si>
-    <t>Flag country</t>
-  </si>
-  <si>
     <t>Reporting year</t>
   </si>
   <si>
@@ -133,6 +130,9 @@
   </si>
   <si>
     <t>1RC</t>
+  </si>
+  <si>
+    <t>Flag state</t>
   </si>
 </sst>
 </file>
@@ -1155,7 +1155,7 @@
     <row r="1" spans="2:8" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="60" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2" s="61"/>
       <c r="D2" s="61"/>
@@ -1176,17 +1176,17 @@
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G4" s="20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H4" s="4"/>
     </row>
@@ -1202,7 +1202,7 @@
     <row r="6" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B6" s="5"/>
       <c r="C6" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
@@ -1227,7 +1227,7 @@
       <c r="D8" s="59"/>
       <c r="E8" s="6"/>
       <c r="F8" s="59" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G8" s="59"/>
       <c r="H8" s="7"/>
@@ -1248,12 +1248,12 @@
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="5"/>
       <c r="C10" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D10" s="23"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G10" s="23"/>
       <c r="H10" s="7"/>
@@ -1270,7 +1270,7 @@
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="5"/>
       <c r="C12" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D12" s="33"/>
       <c r="E12" s="6"/>
@@ -1281,7 +1281,7 @@
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="5"/>
       <c r="C13" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D13" s="33"/>
       <c r="E13" s="6"/>
@@ -1330,7 +1330,7 @@
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="5"/>
       <c r="C18" s="9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D18" s="32"/>
       <c r="E18" s="6"/>
@@ -1341,7 +1341,7 @@
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="5"/>
       <c r="C19" s="34" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D19" s="32"/>
       <c r="E19" s="6"/>
@@ -1352,7 +1352,7 @@
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="5"/>
       <c r="C20" s="35" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="D20" s="32"/>
       <c r="E20" s="6"/>
@@ -1381,7 +1381,7 @@
     <row r="23" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B23" s="5"/>
       <c r="C23" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D23" s="10"/>
       <c r="E23" s="6"/>
@@ -1421,7 +1421,7 @@
       <c r="D27" s="22"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="DFbpv5sUaHDa441cQ9iuNeJNhjXdK7ytoFX6aT1/ZUIabktV42R7X5zjTAJWfaLIJ0SY8VkoVkazInog9ahrfQ==" saltValue="Pe0r5gLelvoCO3mgRWZgUw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="iKiHvOhFSoQzcUZyqiWyUDQ00fTulVRHgdm0PwWg5+eFfvnXNSGOV+oZg9jL8bQ46i8GY65WDHrJg+Y+3S19Sw==" saltValue="qUZ8qq9rOKJvYI7KQ8Sk0w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="4">
     <mergeCell ref="C25:G25"/>
     <mergeCell ref="C8:D8"/>
@@ -1435,7 +1435,7 @@
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="C19" r:id="rId1" location="entities" xr:uid="{C8E8FB11-F219-464A-BC2B-3DAE2B40B804}"/>
-    <hyperlink ref="C20" r:id="rId2" location="countries" xr:uid="{9812E6C2-BEE5-4C23-9A3D-B1B015FBD415}"/>
+    <hyperlink ref="C20" r:id="rId2" location="countries" display="Flag country" xr:uid="{9812E6C2-BEE5-4C23-9A3D-B1B015FBD415}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
@@ -1474,7 +1474,7 @@
     <row r="1" spans="1:111" customFormat="1" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:111" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="60" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2" s="61"/>
       <c r="D2" s="61"/>
@@ -1702,23 +1702,23 @@
     <row r="4" spans="1:111" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="31"/>
       <c r="B4" s="66" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" s="67"/>
       <c r="D4" s="67"/>
       <c r="E4" s="67"/>
       <c r="F4" s="68"/>
       <c r="G4" s="66" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H4" s="67"/>
       <c r="I4" s="68"/>
       <c r="J4" s="66" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K4" s="68"/>
       <c r="L4" s="69" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M4" s="70"/>
       <c r="N4" s="70"/>
@@ -1822,34 +1822,34 @@
     </row>
     <row r="5" spans="1:111" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="38" t="s">
+      <c r="H5" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" s="41" t="s">
         <v>19</v>
-      </c>
-      <c r="G5" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="J5" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="K5" s="41" t="s">
-        <v>20</v>
       </c>
       <c r="L5" s="42"/>
       <c r="M5" s="43"/>
